--- a/Brothers_AMS/TemplateFiles/AttendanceMonitoring.xlsx
+++ b/Brothers_AMS/TemplateFiles/AttendanceMonitoring.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\AMS\Brothers_AMS\Brothers_AMS\TemplateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -166,15 +166,6 @@
     <t>HD</t>
   </si>
   <si>
-    <t>Sick Leave (Day Shift)</t>
-  </si>
-  <si>
-    <t>Vacation Leave (Day Shift)</t>
-  </si>
-  <si>
-    <t>Emergency Leave (Day Shift)</t>
-  </si>
-  <si>
     <t>Official Business</t>
   </si>
   <si>
@@ -191,6 +182,15 @@
   </si>
   <si>
     <t>Leave Reference</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>Vacation Leave</t>
+  </si>
+  <si>
+    <t>Emergency Leave</t>
   </si>
 </sst>
 </file>
@@ -319,6 +319,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -326,9 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +613,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,16 +627,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -679,17 +679,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="1"/>
@@ -708,7 +708,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -717,7 +717,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -726,7 +726,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -751,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -759,25 +759,25 @@
       <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/Brothers_AMS/TemplateFiles/AttendanceMonitoring.xlsx
+++ b/Brothers_AMS/TemplateFiles/AttendanceMonitoring.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\AMS\Brothers_AMS\Brothers_AMS\TemplateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="TyS2DuPiizSJj8xLJpPvPyx/8Dygp9qc52Nhos4eSmLBcNVaB6jVTKoiG/mePFJY5df7TIQfPCH5Qt60ehDVrQ==" workbookSaltValue="0PFwxSdjQECZhzrchIdPRg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="AMSSheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$D$1:$F$6341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMSSheet!$D$1:$F$6341</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -334,8 +335,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7979"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -613,7 +634,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1045,7 @@
       <c r="A99" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="sZq2hTY7U4CCIsJ2Ss9wPecj/ateAOp9D/nsCVpFoGsAn2bJDCcQFoD15jEPnD0TXlQ2R2ZkwLUnTrx8ilZ+Qg==" saltValue="6bgRR+1leSDC7jB/zq7t+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -1040,7 +1062,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51797,7 +51819,22 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5CdfEao456riyWj7snhPf17txmJ9ByLCfMF2RXMpUvdcc+AUZNH9Sun9kD3kd7dPBjpUFdE8grIJiG9RLPr2Jw==" saltValue="0/eX7V2aviBzfhCRo3qXJA==" spinCount="100000" sheet="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="E1:F1048576" name="Range1"/>
+  </protectedRanges>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(F2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Brothers_AMS/TemplateFiles/AttendanceMonitoring.xlsx
+++ b/Brothers_AMS/TemplateFiles/AttendanceMonitoring.xlsx
@@ -109,9 +109,6 @@
     <t>HD</t>
   </si>
   <si>
-    <t>Half Day (Day Shift)</t>
-  </si>
-  <si>
     <t>Maternity Leave</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>System Blank</t>
+  </si>
+  <si>
+    <t>Half Day</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -673,7 +673,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="15"/>
     </row>
@@ -726,7 +726,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>17</v>
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -1082,7 +1082,7 @@
       <c r="A99" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NEL9K9m+Xi9dvlvhXBwXt18Zh4n4OnOMIMk4GTZwFxbAQWMpxBAqxjuTJGxVXi+/7o4OEBZP4cI3vqZhcYscdg==" saltValue="l1RwheOR74BGzw+52DdKZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nXCiQGX2CpytFWuqeJg1Y4syBE3hC3aUUX/Ie1MoeRRsNdKF1Ni6yeXBwqcFTS9Ax+6ywdg1978qCyQjnmN6NA==" saltValue="hGUafCdYe2dwkhbYWHhKjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:C6"/>
